--- a/[H] Requirements Elicitation/Analysis/Likert Questions Correlations.xlsx
+++ b/[H] Requirements Elicitation/Analysis/Likert Questions Correlations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lucasjohnston.sharepoint.com/sites/Personal/Gedeelde documenten/Studie/[15] Master Thesis/[H] Requirements Elicitation/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{DECF8E47-9278-4E51-90A4-32EF86634B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4855DFE8-A9DD-42FF-AC74-67023758AB01}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{DECF8E47-9278-4E51-90A4-32EF86634B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{158C83D5-C61A-479D-8164-9A4C93E95D97}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AA7D1B8E-8831-4893-8797-D816D84882B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AA7D1B8E-8831-4893-8797-D816D84882B1}"/>
   </bookViews>
   <sheets>
     <sheet name="The Data" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="82">
   <si>
     <t>distraction_manual</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>[0,01, 0,49]</t>
+  </si>
+  <si>
+    <t>z=</t>
+  </si>
+  <si>
+    <t>SE</t>
   </si>
 </sst>
 </file>
@@ -542,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -563,51 +569,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,6 +585,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,12 +959,12 @@
       <selection activeCell="O1" sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="15" width="25.7109375" style="1" customWidth="1"/>
+    <col min="1" max="15" width="25.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1046,7 +1058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1093,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1140,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1187,7 +1199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1207,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1254,7 +1266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1301,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1348,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1368,7 +1380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1415,7 +1427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1462,7 +1474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1556,7 +1568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1591,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1638,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1685,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1732,7 +1744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1779,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1826,7 +1838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -1873,7 +1885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -1920,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1967,7 +1979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -2014,7 +2026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -2061,7 +2073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -2108,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -2155,7 +2167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -2202,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -2249,7 +2261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -2296,7 +2308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -2343,7 +2355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -2390,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -2437,7 +2449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -2484,7 +2496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -2531,7 +2543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -2548,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -2595,7 +2607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>0</v>
       </c>
@@ -2612,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -2659,7 +2671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -2706,12 +2718,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E44" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -2758,7 +2770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -2778,7 +2790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -2825,7 +2837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>3</v>
       </c>
@@ -2872,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -2919,7 +2931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -2966,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -3013,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>3</v>
       </c>
@@ -3027,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -3074,7 +3086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -3121,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -3168,7 +3180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -3188,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -3232,7 +3244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -3252,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -3299,7 +3311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -3346,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -3393,7 +3405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -3440,7 +3452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -3487,7 +3499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -3534,7 +3546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>0</v>
       </c>
@@ -3581,7 +3593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -3628,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -3675,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -3730,19 +3742,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E466AE6-EEE8-48D4-8304-6D059649E3E7}">
   <sheetPr codeName="Blad2"/>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L11"/>
+      <selection activeCell="P16" sqref="A1:P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="7.88671875" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="196.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="202.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -3790,1029 +3803,944 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="17">
         <f>PEARSON(distraction_awareness,distraction_manual)</f>
         <v>0.47652733741046144</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="17">
         <f>PEARSON(distraction_shift_focus,distraction_manual)</f>
         <v>0.62006732447840884</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="17">
         <f>PEARSON(distraction_mental_load,distraction_manual)</f>
         <v>0.24832041128740365</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="17">
         <f>PEARSON(distraction_glance_frequency,distraction_manual)</f>
         <v>0.53595194569662774</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="18">
         <f>PEARSON(distraction_glance_duration,distraction_manual)</f>
         <v>0.4484128839438567</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="19">
         <f>PEARSON(behavior_more_speed,distraction_manual)</f>
         <v>0.24350393410199453</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="20">
         <f>PEARSON(behavior_less_speed,distraction_manual)</f>
         <v>0.4281537569856762</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="20">
         <f>PEARSON(behavior_speed_control,distraction_manual)</f>
         <v>0.1873561168582448</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="20">
         <f>PEARSON(behavior_lane_position,distraction_manual)</f>
         <v>0.34253030860468575</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="20">
         <f>PEARSON(behavior_reaction_time,distraction_manual)</f>
         <v>0.50424401587420709</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="20">
         <f>PEARSON(behavior_wrong_turns,distraction_manual)</f>
         <v>0.30356127901600355</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="21">
         <f>PEARSON(behavior_operating_errors,distraction_manual)</f>
         <v>0.3550412702432803</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="22">
         <f>PEARSON(bad_instructions,distraction_manual)</f>
         <v>0.14066955961240607</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="17">
         <f>PEARSON(interruptions,distraction_manual)</f>
         <v>0.10042278450951971</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="B3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="17">
         <f>PEARSON(distraction_shift_focus,distraction_awareness)</f>
         <v>0.50249686469642685</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="17">
         <f>PEARSON(distraction_mental_load,distraction_awareness)</f>
         <v>0.5186919698148903</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="17">
         <f>PEARSON(distraction_glance_frequency,distraction_awareness)</f>
         <v>0.46598050958025838</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="18">
         <f>PEARSON(distraction_glance_duration,distraction_awareness)</f>
         <v>0.32588295529701228</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="23">
         <f>PEARSON(behavior_more_speed,distraction_awareness)</f>
         <v>0.41504528950539171</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="17">
         <f>PEARSON(behavior_less_speed,distraction_awareness)</f>
         <v>0.28841115362011038</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="17">
         <f>PEARSON(behavior_speed_control,distraction_awareness)</f>
         <v>0.26729081708662661</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="17">
         <f>PEARSON(behavior_lane_position,distraction_awareness)</f>
         <v>0.39114321324451129</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="17">
         <f>PEARSON(behavior_reaction_time,distraction_awareness)</f>
         <v>0.56892688543806069</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="17">
         <f>PEARSON(behavior_wrong_turns,distraction_awareness)</f>
         <v>0.31414043121877172</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="24">
         <f>PEARSON(behavior_operating_errors,distraction_awareness)</f>
         <v>0.24794043096051399</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="22">
         <f>PEARSON(bad_instructions,distraction_awareness)</f>
         <v>0.13016640057848036</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="17">
         <f>PEARSON(interruptions,distraction_awareness)</f>
         <v>0.22499059654889805</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="B4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="17">
         <f>PEARSON(distraction_mental_load,distraction_shift_focus)</f>
         <v>0.48229812784746323</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="17">
         <f>PEARSON(distraction_glance_frequency,distraction_shift_focus)</f>
         <v>0.54376826377123888</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="18">
         <f>PEARSON(distraction_glance_duration,distraction_shift_focus)</f>
         <v>0.55698076464710766</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="23">
         <f>PEARSON(behavior_more_speed,distraction_shift_focus)</f>
         <v>0.3084326805851742</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="17">
         <f>PEARSON(behavior_less_speed,distraction_shift_focus)</f>
         <v>0.30072655480357297</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="17">
         <f>PEARSON(behavior_speed_control,distraction_shift_focus)</f>
         <v>0.16550615815132702</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="17">
         <f>PEARSON(behavior_lane_position,distraction_shift_focus)</f>
         <v>0.35413784478306409</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="17">
         <f>PEARSON(behavior_reaction_time,distraction_shift_focus)</f>
         <v>0.54415719097975157</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="17">
         <f>PEARSON(behavior_wrong_turns,distraction_shift_focus)</f>
         <v>0.42038386882350498</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="24">
         <f>PEARSON(behavior_operating_errors,distraction_shift_focus)</f>
         <v>0.27742864287789282</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="22">
         <f>PEARSON(bad_instructions,distraction_shift_focus)</f>
         <v>0.2112419455074698</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="17">
         <f>PEARSON(interruptions,distraction_shift_focus)</f>
         <v>0.14905006553670552</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="B5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="17">
         <f>PEARSON(distraction_glance_frequency,distraction_mental_load)</f>
         <v>0.26566393960715479</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="18">
         <f>PEARSON(distraction_glance_duration,distraction_mental_load)</f>
         <v>0.39980544403277529</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="23">
         <f>PEARSON(behavior_more_speed,distraction_mental_load)</f>
         <v>0.31233846706591961</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="17">
         <f>PEARSON(behavior_less_speed,distraction_mental_load)</f>
         <v>0.16510105274270218</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="17">
         <f>PEARSON(behavior_speed_control,distraction_mental_load)</f>
         <v>0.2738823855493116</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="17">
         <f>PEARSON(behavior_lane_position,distraction_mental_load)</f>
         <v>0.27983568539322778</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="17">
         <f>PEARSON(behavior_reaction_time,distraction_mental_load)</f>
         <v>0.40157003939714397</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="17">
         <f>PEARSON(behavior_wrong_turns,distraction_mental_load)</f>
         <v>0.2542614673420005</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="24">
         <f>PEARSON(behavior_operating_errors,distraction_mental_load)</f>
         <v>0.44391822218882804</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="22">
         <f>PEARSON(bad_instructions,distraction_mental_load)</f>
         <v>0.28394676462862067</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="17">
         <f>PEARSON(interruptions,distraction_mental_load)</f>
         <v>0.3548217809557378</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="B6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="18">
         <f>PEARSON(distraction_glance_duration,distraction_glance_frequency)</f>
         <v>0.54141028865250485</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="23">
         <f>PEARSON(behavior_more_speed,distraction_glance_frequency)</f>
         <v>0.11854321688026524</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="17">
         <f>PEARSON(behavior_less_speed,distraction_glance_frequency)</f>
         <v>0.32780535110751563</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="17">
         <f>PEARSON(behavior_speed_control,distraction_glance_frequency)</f>
         <v>0.11542531906028421</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="17">
         <f>PEARSON(behavior_lane_position,distraction_glance_frequency)</f>
         <v>0.39399476010169532</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="17">
         <f>PEARSON(behavior_reaction_time,distraction_glance_frequency)</f>
         <v>0.41519024633312851</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="17">
         <f>PEARSON(behavior_wrong_turns,distraction_glance_frequency)</f>
         <v>0.34275531069192605</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="24">
         <f>PEARSON(behavior_operating_errors,distraction_glance_frequency)</f>
         <v>0.34140469311337324</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="22">
         <f>PEARSON(bad_instructions,distraction_glance_frequency)</f>
         <v>9.7387327933196613E-2</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="17">
         <f>PEARSON(interruptions,distraction_glance_frequency)</f>
         <v>0.10075167623027577</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="B7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="26">
         <f>PEARSON(behavior_more_speed,distraction_glance_duration)</f>
         <v>0.2308754195012642</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="27">
         <f>PEARSON(behavior_less_speed,distraction_glance_duration)</f>
         <v>0.35427634687298659</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="27">
         <f>PEARSON(behavior_speed_control,distraction_glance_duration)</f>
         <v>0.11519160026637054</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="27">
         <f>PEARSON(behavior_lane_position,distraction_glance_duration)</f>
         <v>0.43320954455191324</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="27">
         <f>PEARSON(behavior_reaction_time,distraction_glance_duration)</f>
         <v>0.32716657457184262</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="27">
         <f>PEARSON(behavior_wrong_turns,distraction_glance_duration)</f>
         <v>0.307213310000093</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="28">
         <f>PEARSON(behavior_operating_errors,distraction_glance_duration)</f>
         <v>0.42974036106363139</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="22">
         <f>PEARSON(bad_instructions,distraction_glance_duration)</f>
         <v>0.18975815686899797</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="17">
         <f>PEARSON(interruptions,distraction_glance_duration)</f>
         <v>-2.1394778812159503E-2</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="22">
+      <c r="B8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="30">
         <f>PEARSON(behavior_less_speed,behavior_more_speed)</f>
         <v>0.31147179085999011</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="30">
         <f>PEARSON(behavior_speed_control,behavior_more_speed)</f>
         <v>0.57231997292056913</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="30">
         <f>PEARSON(behavior_lane_position,behavior_more_speed)</f>
         <v>0.46493022800475337</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="30">
         <f>PEARSON(behavior_reaction_time,behavior_more_speed)</f>
         <v>0.19142301304078743</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="30">
         <f>PEARSON(behavior_wrong_turns,behavior_more_speed)</f>
         <v>0.22548634406650145</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="30">
         <f>PEARSON(behavior_operating_errors,behavior_more_speed)</f>
         <v>0.35300612186219482</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="17">
         <f>PEARSON(bad_instructions,behavior_more_speed)</f>
         <v>0.22210937965024127</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="17">
         <f>PEARSON(interruptions,behavior_more_speed)</f>
         <v>9.0449535970411221E-2</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="B9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="17">
         <f>PEARSON(behavior_speed_control,behavior_less_speed)</f>
         <v>0.44923280054066311</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="17">
         <f>PEARSON(behavior_lane_position,behavior_less_speed)</f>
         <v>0.42397819435239159</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="17">
         <f>PEARSON(behavior_reaction_time,behavior_less_speed)</f>
         <v>0.46840401320829783</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="17">
         <f>PEARSON(behavior_wrong_turns,behavior_less_speed)</f>
         <v>0.267924324511984</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="17">
         <f>PEARSON(behavior_operating_errors,behavior_less_speed)</f>
         <v>0.31829934536766696</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="17">
         <f>PEARSON(bad_instructions,behavior_less_speed)</f>
         <v>0.32388718035418457</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="17">
         <f>PEARSON(interruptions,behavior_less_speed)</f>
         <v>1.1372229873407143E-2</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="3"/>
+      <c r="W9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="9">
+      <c r="B10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="17">
         <f>PEARSON(behavior_lane_position,behavior_speed_control)</f>
         <v>0.60438199360901157</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="17">
         <f>PEARSON(behavior_reaction_time,behavior_speed_control)</f>
         <v>0.18822623854824636</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="17">
         <f>PEARSON(behavior_wrong_turns,behavior_speed_control)</f>
         <v>0.33812408295626178</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="17">
         <f>PEARSON(behavior_operating_errors,behavior_speed_control)</f>
         <v>0.22196095931864526</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="17">
         <f>PEARSON(bad_instructions,behavior_speed_control)</f>
         <v>0.42389481951914182</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="17">
         <f>PEARSON(interruptions,behavior_speed_control)</f>
         <v>1.2776840272651002E-2</v>
       </c>
       <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="14">
+        <f ca="1">'Sample Sizes'!K10</f>
+        <v>55</v>
+      </c>
+      <c r="S10" s="15">
+        <f>1+K10</f>
+        <v>1.6043819936090116</v>
+      </c>
+      <c r="T10" s="15">
+        <f>1-K10</f>
+        <v>0.39561800639098843</v>
+      </c>
+      <c r="U10" s="2">
+        <f>S10/T10</f>
+        <v>4.0553816249288825</v>
+      </c>
+      <c r="V10" s="2">
+        <f>LOG(U10,2.71828182845904)</f>
+        <v>1.4000447953287181</v>
+      </c>
+      <c r="W10" s="2">
+        <f>V10/2</f>
+        <v>0.70002239766435903</v>
+      </c>
+      <c r="X10" s="2">
+        <f ca="1">1/SQRT(R10-3)</f>
+        <v>0.13867504905630729</v>
+      </c>
+      <c r="Y10" s="2">
+        <f ca="1">W10*X10</f>
+        <v>9.7075640336618835E-2</v>
+      </c>
+      <c r="Z10" s="15">
+        <f ca="1">K10+Y10</f>
+        <v>0.70145763394563043</v>
+      </c>
+      <c r="AA10" s="15">
+        <f ca="1">K10-Y10</f>
+        <v>0.50730635327239271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="9">
+      <c r="B11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="17">
         <f>PEARSON(behavior_reaction_time,behavior_lane_position)</f>
         <v>0.40280640773941967</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="17">
         <f>PEARSON(behavior_wrong_turns,behavior_lane_position)</f>
         <v>0.33382562241835528</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="17">
         <f>PEARSON(behavior_operating_errors,behavior_lane_position)</f>
         <v>0.27214152577448231</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="17">
         <f>PEARSON(bad_instructions,behavior_lane_position)</f>
         <v>0.17824454101366477</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="17">
         <f>PEARSON(interruptions,behavior_lane_position)</f>
         <v>0.28264546046002986</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="9">
+      <c r="B12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="17">
         <f>PEARSON(behavior_wrong_turns,behavior_reaction_time)</f>
         <v>0.37033736479354068</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="17">
         <f>PEARSON(behavior_operating_errors,behavior_reaction_time)</f>
         <v>0.21009017576039676</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="17">
         <f>PEARSON(bad_instructions,behavior_reaction_time)</f>
         <v>0.25494401020750029</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="17">
         <f>PEARSON(interruptions,behavior_reaction_time)</f>
         <v>0.1812756445906395</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="9">
+      <c r="B13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="17">
         <f>PEARSON(behavior_operating_errors,behavior_wrong_turns)</f>
         <v>0.31707771525599493</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="17">
         <f>PEARSON(bad_instructions,behavior_wrong_turns)</f>
         <v>0.28973860695897002</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="17">
         <f>PEARSON(interruptions,behavior_wrong_turns)</f>
         <v>0.23004980949931864</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="9">
+      <c r="B14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="17">
         <f>PEARSON(bad_instructions,behavior_operating_errors)</f>
         <v>0.30556960558136165</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="17">
         <f>PEARSON(interruptions,behavior_operating_errors)</f>
         <v>0.16746217888862522</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="9">
+      <c r="B15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="17">
         <f>PEARSON(interruptions,bad_instructions)</f>
         <v>0.14098830005508528</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" s="8" t="s">
+      <c r="B16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="16" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:P2">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:O3">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:O4">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:O5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:O6">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:O7">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:O8">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:O9">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:O10">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11:O11">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12:O12">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13:O13">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
+  <conditionalFormatting sqref="B2:P16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P15">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -4827,16 +4755,16 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L11"/>
+      <selection activeCell="K1" sqref="K1:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="194.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="201.6" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -4884,886 +4812,886 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="24">
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9">
         <f ca="1">MIN(COUNT(INDIRECT(C$1)),COUNT(INDIRECT($A2)))</f>
         <v>62</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="9">
         <f t="shared" ref="D2:P15" ca="1" si="0">MIN(COUNT(INDIRECT(D$1)),COUNT(INDIRECT($A2)))</f>
         <v>62</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>61</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>62</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>62</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>62</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>61</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>62</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>62</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="24">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>61</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>63</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>63</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="24">
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>61</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>61</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="24">
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>63</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="24">
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="24">
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="24">
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="24">
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="24">
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="24">
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="24">
+      <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="24">
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="24">
+      <c r="B15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" s="23" t="s">
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="3"/>
@@ -5781,16 +5709,16 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="194.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="201.6" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -5838,781 +5766,781 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="24" t="s">
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="27" t="s">
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="9" t="s">
         <v>29</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="24" t="s">
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="24" t="s">
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="M8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="9" t="s">
         <v>34</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="24" t="s">
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="9" t="s">
         <v>35</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="28" t="s">
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="P10" s="9" t="s">
         <v>35</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="24" t="s">
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="24" t="s">
+      <c r="P11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="24" t="s">
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="P12" s="9" t="s">
         <v>37</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="24" t="s">
+      <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="24" t="s">
+      <c r="O13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="24" t="s">
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="24" t="s">
+      <c r="P14" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="24" t="s">
+      <c r="B15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="9" t="s">
         <v>31</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" s="23" t="s">
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="3"/>
@@ -6625,10 +6553,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007E3BDA08E1E5A249978B11231DCF019A" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a7ca215021bbdd190a5af84d80b652fc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" xmlns:ns3="63184760-ab03-4f31-8d05-e57fd1de7cd7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f6025b888d8bdcce249ab03fa1f72" ns2:_="" ns3:_="">
-    <xsd:import namespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b"/>
-    <xsd:import namespace="63184760-ab03-4f31-8d05-e57fd1de7cd7"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C9F4F6ABB567045B93F1D0C638A57F9" ma:contentTypeVersion="14" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="618a17aee6fe21829d83342cfb0aeda2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e881998-9419-4d13-b84d-721ac971c709" xmlns:ns3="d6a03bd9-b31b-493a-b31e-bb4432e88c75" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f381c43000bb8a88d8a6b5bfc4c73959" ns2:_="" ns3:_="">
+    <xsd:import namespace="0e881998-9419-4d13-b84d-721ac971c709"/>
+    <xsd:import namespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -6641,10 +6569,13 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6652,7 +6583,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0e881998-9419-4d13-b84d-721ac971c709" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -6687,28 +6618,45 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="63184760-ab03-4f31-8d05-e57fd1de7cd7" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e1844fe6-43bb-44ca-860b-cdc46f75e607}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="63184760-ab03-4f31-8d05-e57fd1de7cd7">
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{8e1fa4af-7bd6-40f1-95bc-3c1c2580a70b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d6a03bd9-b31b-493a-b31e-bb4432e88c75">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -6829,7 +6777,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B7E18D3-4755-45BD-B348-B6AEA13D88D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0737DB62-D346-413D-9650-411E81E00933}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0e881998-9419-4d13-b84d-721ac971c709"/>
+    <ds:schemaRef ds:uri="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
